--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1975338.841987896</v>
+        <v>1993713.531454017</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.59814925154022</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>233.1020523603607</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="5">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>135.352867717798</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>370.947890899747</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>46.49527385100491</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>16.77478458041829</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.32882004050054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664144</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>174.3062600431768</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>144.4797853959758</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>220.0883375064757</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.76001926167726</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>216.3688193949613</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>49.38162151975563</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.8385935972322</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.8641302189102</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.9505883551343</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>88.23851788996291</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,16 +3424,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>60.83974965596541</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>204.8417630624804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>21.86696197154514</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.92656778835364</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>110.098120893176</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>93.41635432791946</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1758.089842927221</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4516,19 +4516,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4607,10 +4607,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.775345511217</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.812828570805</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>853.5471299640549</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4814,40 +4814,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2650.184167936399</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2474.006680250569</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2255.372013222632</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2001.610227860724</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1670.547340517153</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>368.9169416640007</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>368.9169416640007</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>218.8003022516649</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>70.88720866927181</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,13 +5042,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365146</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.3226148324571</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>420.3226148324571</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>420.3226148324571</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>420.3226148324571</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3226148324571</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324571</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324571</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1041.981979867628</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>752.8533410811858</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,28 +5534,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,22 +5595,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845919</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831245</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1276.604818531159</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,10 +5753,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1415.320291505703</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1215.400281421255</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>991.6148662107611</v>
+        <v>1280.361907532689</v>
       </c>
       <c r="U22" t="n">
-        <v>702.4862274243193</v>
+        <v>1280.361907532689</v>
       </c>
       <c r="V22" t="n">
-        <v>447.8017392184324</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="W22" t="n">
-        <v>447.8017392184324</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X22" t="n">
-        <v>447.8017392184324</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3803.838860774509</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C25" t="n">
-        <v>3803.838860774509</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D25" t="n">
-        <v>3753.958434996978</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E25" t="n">
-        <v>3606.045341414585</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>3616.56811472196</v>
       </c>
       <c r="G25" t="n">
         <v>3459.155393916675</v>
@@ -6175,22 +6175,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X25" t="n">
-        <v>3803.838860774509</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y25" t="n">
-        <v>3803.838860774509</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.2349604684848</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684848</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G28" t="n">
         <v>359.1696912903951</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>928.9194486743717</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>674.2349604684848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>674.2349604684848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>674.2349604684848</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.2349604684848</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.6713633309776</v>
+        <v>100.8871334832924</v>
       </c>
       <c r="C31" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6652,19 +6652,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X31" t="n">
-        <v>1047.141304449391</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y31" t="n">
-        <v>826.3487253058607</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>355.2830904386603</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>186.3469075107534</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727022</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690061</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916675</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,10 +6929,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.0432218861031</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>270.2059754201216</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>270.2059754201216</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7120,25 +7120,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>909.3712637033469</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W37" t="n">
-        <v>619.9540936663864</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X37" t="n">
-        <v>619.9540936663864</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y37" t="n">
-        <v>413.0432218861031</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="38">
@@ -7148,70 +7148,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,25 +7430,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7646,10 +7646,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>955.1031435655738</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>786.1669606376669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>636.0503212253311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>488.137227642938</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>488.137227642938</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>319.9619059627586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1293.481213253143</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1293.481213253143</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W46" t="n">
-        <v>955.1031435655738</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X46" t="n">
-        <v>955.1031435655738</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y46" t="n">
-        <v>955.1031435655738</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498458</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863237</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567361</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>23.61454994042646</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>32.04930581735229</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>27.20433314211553</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>5.178741663427957</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>99.23385149845672</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>10.65497486614538</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>251.3732221796672</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.881391826802968</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6134794958514</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24856,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>60.37695512824945</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,25 +25123,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>84.58129836696583</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.74289028961439</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>124.567000675024</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25834,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>82.39383318338571</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>38.81570747436011</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>104.5044556556838</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978006</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="F2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029914</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295642.8611048314</v>
+        <v>-293114.539941389</v>
       </c>
       <c r="C6" t="n">
-        <v>294325.018109713</v>
+        <v>296853.3392731557</v>
       </c>
       <c r="D6" t="n">
-        <v>294325.018109713</v>
+        <v>296853.3392731552</v>
       </c>
       <c r="E6" t="n">
-        <v>-120596.4965700048</v>
+        <v>-118561.6773320082</v>
       </c>
       <c r="F6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="G6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.3591448879</v>
       </c>
       <c r="H6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448884</v>
       </c>
       <c r="I6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.359144888</v>
       </c>
       <c r="J6" t="n">
-        <v>228140.3207142981</v>
+        <v>230175.1399522951</v>
       </c>
       <c r="K6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="L6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.3591448882</v>
       </c>
       <c r="M6" t="n">
-        <v>269762.5246730539</v>
+        <v>271797.343911051</v>
       </c>
       <c r="N6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.359144888</v>
       </c>
       <c r="O6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448879</v>
       </c>
       <c r="P6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.359144888</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26738,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305.1356924119403</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>94.65020610977425</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="5">
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>250.8850709382556</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>80.36219811415336</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10.98247917251479</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>7.983128723806786</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>128.6462634425129</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.2558333115942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.370970955225845e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058701</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178483</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221117</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1993713.531454017</v>
+        <v>2069243.201118822</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>46.73744164365319</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>233.1020523603607</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.352867717798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>38.96794081168471</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>206.1608002224376</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>115.1187825524128</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>46.49527385100491</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>16.77478458041829</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7465858495626</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>174.3062600431768</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985812</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4552226741737</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1816,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>144.4797853959758</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>209.4552226741775</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>120.8530343211899</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>220.0883375064757</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>216.3688193949613</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.8385935972322</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>122.2151751544596</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.633341602776479</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>88.23851788996291</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>60.83974965596541</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>29.18937547121065</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.92656778835364</v>
+        <v>112.2536425510784</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.59117141263923</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>93.41635432791946</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1051.392652226918</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>665.6043996286735</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>254.6184948390659</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1758.089842927221</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1405.321187657107</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1405.321187657107</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.321187657107</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>519.8857516585174</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>519.8857516585174</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.8857516585174</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.778685247039</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>741.6543644648787</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>323.6905563630655</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2650.184167936399</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2474.006680250569</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2255.372013222632</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2001.610227860724</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1670.547340517153</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1317.778685247039</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1317.778685247039</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y8" t="n">
-        <v>1317.778685247039</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.9169416640007</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>368.9169416640007</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>218.8003022516649</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>70.88720866927181</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942404</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942404</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942404</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942404</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5060,31 +5062,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1322.84934122136</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1322.84934122136</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.84934122136</v>
+        <v>675.0071030383401</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.84934122136</v>
+        <v>420.3226148324533</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.84934122136</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,19 +5269,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,19 +5290,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5431,7 +5433,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,13 +5466,13 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1041.981979867628</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>752.8533410811858</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>498.168852875299</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
         <v>208.7516828383384</v>
@@ -5492,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.7466045204288</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C19" t="n">
-        <v>415.8104215925219</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D19" t="n">
-        <v>415.8104215925219</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>1276.604818531159</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W19" t="n">
-        <v>987.1876484941987</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X19" t="n">
-        <v>987.1876484941987</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y19" t="n">
-        <v>766.3950693506686</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5765,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1280.361907532689</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1280.361907532689</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>1025.677419326802</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>1025.677419326802</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>797.6878684287846</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.8952892852544</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4230.423978142506</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4061.487795214599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3911.371155802263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3616.56811472196</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014292</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>4632.865022116275</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>4412.072442972745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,13 +6226,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8871334832924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>731.3177283550796</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>282.5355983135321</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>355.2830904386603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>186.3469075107534</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>757.7241344124302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>536.9315552689001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.3226148324574</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C37" t="n">
-        <v>420.3226148324574</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D37" t="n">
-        <v>270.2059754201216</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E37" t="n">
-        <v>270.2059754201216</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324574</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X37" t="n">
-        <v>420.3226148324574</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.3226148324574</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,37 +7159,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>126.7013091079734</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.4856756861153</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5494927582084</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="D43" t="n">
-        <v>549.4328533458727</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="E43" t="n">
-        <v>401.5197597634796</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="F43" t="n">
-        <v>401.5197597634796</v>
+        <v>210.6046091886479</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>392.2530740188876</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516355</v>
+        <v>392.2530740188876</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>327.7288535116511</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>177.6122140993154</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>177.6122140993154</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>177.6122140993154</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>177.6122140993154</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1293.481213253143</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1293.481213253143</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1004.352574466701</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1004.352574466701</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>714.9354044297402</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X46" t="n">
-        <v>486.9458535317228</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>496.665036439558</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,16 +8777,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>23.61454994042646</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>77.06777566241726</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>77.06777566241348</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>45.64053414218772</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>32.04930581735229</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,16 +24180,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>5.178741663427957</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>10.65497486614538</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>44.27839330891794</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>163.6134794958514</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>60.37695512824945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>84.58129836696583</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>77.06777566241277</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>137.3041929921669</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>124.5670006750239</v>
+        <v>54.2399259122992</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>69.3226569548969</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>104.5044556556838</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978006</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
         <v>527889.230645907</v>
@@ -26338,22 +26340,22 @@
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>527889.2306459072</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,19 +26377,19 @@
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,10 +26429,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26442,13 +26444,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26476,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-293114.539941389</v>
       </c>
       <c r="C6" t="n">
-        <v>296853.3392731557</v>
+        <v>296853.3392731553</v>
       </c>
       <c r="D6" t="n">
-        <v>296853.3392731552</v>
+        <v>296853.3392731553</v>
       </c>
       <c r="E6" t="n">
-        <v>-118561.6773320082</v>
+        <v>-118561.6773320081</v>
       </c>
       <c r="F6" t="n">
+        <v>406598.3591448878</v>
+      </c>
+      <c r="G6" t="n">
         <v>406598.3591448881</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>406598.3591448879</v>
       </c>
-      <c r="H6" t="n">
-        <v>406598.3591448884</v>
-      </c>
       <c r="I6" t="n">
-        <v>406598.359144888</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="J6" t="n">
         <v>230175.1399522951</v>
       </c>
       <c r="K6" t="n">
-        <v>406598.3591448882</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="L6" t="n">
-        <v>406598.3591448882</v>
+        <v>406598.3591448879</v>
       </c>
       <c r="M6" t="n">
-        <v>271797.343911051</v>
+        <v>271797.3439110509</v>
       </c>
       <c r="N6" t="n">
-        <v>406598.359144888</v>
+        <v>406598.3591448884</v>
       </c>
       <c r="O6" t="n">
-        <v>406598.3591448879</v>
+        <v>406598.3591448883</v>
       </c>
       <c r="P6" t="n">
-        <v>406598.359144888</v>
+        <v>406598.3591448883</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26755,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>367.0467283771418</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>94.65020610977425</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>52.55328306226772</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>250.8850709382556</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>128.2788802869431</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>80.36219811415336</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>208.8039902119444</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>7.983128723806786</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>128.6462634425129</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>4.288519608521625</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28108,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28302,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-3.864878787377771e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28573,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>598.833559628142</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35975,10 +35977,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2069243.201118822</v>
+        <v>2062226.18622711</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>270.7706607858352</v>
       </c>
       <c r="G2" t="n">
-        <v>46.73744164365319</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>230.2634979541059</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>320.7770569087266</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>38.96794081168471</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>115.1187825524128</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.76935934992291</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7465858495626</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985812</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4552226741737</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>53.18663863928393</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>118.4898845065168</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4552226741775</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>120.8530343211899</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>201.6473422926468</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113187</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274071</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>149.0799667719507</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,7 +2535,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>160.9317268742385</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>150.4127183081603</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>33.3514698018592</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>216.4586446023336</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G40" t="n">
-        <v>29.18937547121065</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G43" t="n">
-        <v>112.2536425510784</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3137095599317</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>79.59117141263923</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1409.658350833668</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C2" t="n">
-        <v>1409.658350833668</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D2" t="n">
-        <v>1051.392652226918</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="E2" t="n">
-        <v>665.6043996286735</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="F2" t="n">
-        <v>254.6184948390659</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1796.25819089779</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4515,19 +4515,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2476.569858826099</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2476.569858826099</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>2476.569858826099</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285.8510101265796</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1152.640269254486</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1152.640269254486</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.640269254486</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.640269254486</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>741.6543644648787</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>323.6905563630655</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1152.640269254486</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4886,7 +4886,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383401</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324533</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7516828383384</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X13" t="n">
-        <v>208.7516828383384</v>
+        <v>732.358329063101</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,22 +5269,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,7 +5293,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974671</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980068</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771465</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655785</v>
       </c>
       <c r="W16" t="n">
-        <v>208.7516828383384</v>
+        <v>665.685973528618</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226306006</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870705</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.8254548799443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>330.8254548799443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>330.8254548799443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>330.8254548799443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8254548799443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169049</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>330.8254548799443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.8254548799443</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1348.33044553573</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1124.545030325236</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>835.416391538794</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6235,19 +6235,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279829</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>557.8041243279829</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8041243279829</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6472,28 +6472,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>418.0853130833042</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>249.1491301553973</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>249.1491301553973</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>249.1491301553973</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>249.1491301553973</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>599.7337779135439</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6982,7 +6982,7 @@
         <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9054447954972</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C37" t="n">
-        <v>130.9054447954972</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D37" t="n">
-        <v>130.9054447954972</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E37" t="n">
-        <v>130.9054447954972</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F37" t="n">
-        <v>130.9054447954972</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G37" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9054447954972</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028589</v>
@@ -7116,31 +7116,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1280.271174999994</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383447</v>
+        <v>991.1425362135525</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324578</v>
+        <v>736.4580480076656</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954972</v>
+        <v>447.040877970705</v>
       </c>
       <c r="X37" t="n">
-        <v>130.9054447954972</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.9054447954972</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,46 +7159,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.7013091079734</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C40" t="n">
-        <v>126.7013091079734</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D40" t="n">
-        <v>126.7013091079734</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E40" t="n">
-        <v>126.7013091079734</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F40" t="n">
-        <v>126.7013091079734</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>644.1080300429513</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>354.6908600059907</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>126.7013091079734</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y40" t="n">
-        <v>126.7013091079734</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,7 +7435,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>210.6046091886479</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C43" t="n">
-        <v>210.6046091886479</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D43" t="n">
-        <v>210.6046091886479</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E43" t="n">
-        <v>210.6046091886479</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F43" t="n">
-        <v>210.6046091886479</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169049</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>620.2426249169049</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>392.2530740188876</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.2530740188876</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>496.665036439558</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C46" t="n">
-        <v>327.7288535116511</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>177.6122140993154</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>177.6122140993154</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>177.6122140993154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>177.6122140993154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>496.665036439558</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X46" t="n">
-        <v>496.665036439558</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y46" t="n">
-        <v>496.665036439558</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>104.624151036794</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445214</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>77.06777566241726</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>172.5230167497532</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542051</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>77.06777566241348</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>45.64053414218772</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>84.5900101059305</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>48.84084321165253</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>6.315094224389327</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>16.08085015521729</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>77.06777566241277</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>5.088916456055614</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271324</v>
       </c>
       <c r="G40" t="n">
-        <v>137.3041929921669</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="G43" t="n">
-        <v>54.2399259122992</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>44.93311153869614</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>69.3226569548969</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869228.2302978006</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293114.539941389</v>
+        <v>-293114.5399413888</v>
       </c>
       <c r="C6" t="n">
-        <v>296853.3392731553</v>
+        <v>296853.3392731552</v>
       </c>
       <c r="D6" t="n">
-        <v>296853.3392731553</v>
+        <v>296853.3392731552</v>
       </c>
       <c r="E6" t="n">
-        <v>-118561.6773320081</v>
+        <v>-119536.2685917299</v>
       </c>
       <c r="F6" t="n">
-        <v>406598.3591448878</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="G6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="H6" t="n">
-        <v>406598.3591448879</v>
+        <v>405623.7678851666</v>
       </c>
       <c r="I6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851662</v>
       </c>
       <c r="J6" t="n">
-        <v>230175.1399522951</v>
+        <v>229200.5486925736</v>
       </c>
       <c r="K6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="L6" t="n">
-        <v>406598.3591448879</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="M6" t="n">
-        <v>271797.3439110509</v>
+        <v>270822.7526513289</v>
       </c>
       <c r="N6" t="n">
-        <v>406598.3591448884</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="O6" t="n">
-        <v>406598.3591448883</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="P6" t="n">
-        <v>406598.3591448883</v>
+        <v>405623.7678851662</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>136.1053849558762</v>
       </c>
       <c r="G2" t="n">
-        <v>367.0467283771418</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>61.95678475475398</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>52.55328306226772</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>128.2788802869431</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>208.8039902119444</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>186.4548081583664</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>120.4387434050068</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>4.288519608521625</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-3.864878787377771e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.190252600806797e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-6.190252600806797e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>598.833559628142</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805608</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330527</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>437.8187244348071</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187912</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2062226.18622711</v>
+        <v>2067165.449076142</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>270.7706607858352</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>124.3870697343666</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.83808333974897</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.7770569087266</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>119.9036483773684</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686235</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>47.37373137481173</v>
       </c>
       <c r="U8" t="n">
-        <v>64.76935934992291</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.5268783873314</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>69.27142932050975</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>53.18663863928393</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4898845065168</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.7267977440697</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>201.6473422926468</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>281.2000358033532</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113187</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>103.582984353078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>160.9317268742385</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>74.61215761783147</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>150.4127183081603</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.765426656859577</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>216.4586446023336</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>122.3137095599317</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.8784838925781</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C2" t="n">
-        <v>898.8784838925781</v>
+        <v>1348.549746658564</v>
       </c>
       <c r="D2" t="n">
-        <v>898.8784838925781</v>
+        <v>990.2840480518139</v>
       </c>
       <c r="E2" t="n">
-        <v>898.8784838925781</v>
+        <v>604.4957954535696</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>193.509890663962</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>179.586486602553</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>179.586486602553</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213109</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213109</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>894.9862514725855</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>509.1979988743413</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>502.2524981251378</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355875</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355875</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355875</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355875</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355875</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2649.296837104271</v>
       </c>
       <c r="U8" t="n">
-        <v>2631.72549571527</v>
+        <v>2395.535051742363</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.662608371699</v>
+        <v>2395.535051742363</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.893953101585</v>
+        <v>2042.766396472248</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>1669.300638211168</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1669.300638211168</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.358329063101</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404653</v>
+        <v>167.1882321880735</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765191</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765191</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>786.0822064765191</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>732.358329063101</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.358329063101</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974671</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980068</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557907</v>
+        <v>1382.020515260862</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557907</v>
+        <v>1158.235100050368</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771465</v>
+        <v>1158.235100050368</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655785</v>
+        <v>1158.235100050368</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528618</v>
+        <v>1158.235100050368</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226306006</v>
+        <v>930.2455491523508</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870705</v>
+        <v>709.4529700088207</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.785243411008</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555207</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619849</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1071.446671213422</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>816.762183007535</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>1214.875830352495</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805479</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>689.0745126050291</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>520.1383296771222</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>370.0216902647865</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>370.0216902647865</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>370.0216902647865</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>201.8463685846071</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>870.7229774352688</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>870.7229774352688</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6004,13 +6004,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,16 +6165,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.8041243279829</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.210845262961</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>785.7936752260002</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>557.8041243279829</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y28" t="n">
-        <v>557.8041243279829</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,28 +6484,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>418.0853130833042</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C31" t="n">
-        <v>249.1491301553973</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>249.1491301553973</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>249.1491301553973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>249.1491301553973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.210845262961</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570741</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W31" t="n">
-        <v>820.5263570570741</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X31" t="n">
-        <v>820.5263570570741</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y31" t="n">
-        <v>599.7337779135439</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6934,55 +6934,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404653</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404653</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404653</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404653</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404653</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>102.030653739942</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557907</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557907</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1280.271174999994</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>991.1425362135525</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>736.4580480076656</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>447.040877970705</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X37" t="n">
-        <v>447.040877970705</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.040877970705</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="38">
@@ -7171,34 +7171,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201021</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201021</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9110074201021</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E40" t="n">
-        <v>213.9110074201021</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201021</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201021</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>104.624151036794</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>76.14961870242149</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>172.5230167497532</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.34209567542051</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.19401223953359</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>84.5900101059305</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>5.322962533237785</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>45.33084401445812</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6.315094224389327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>74.30167074970466</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>16.08085015521729</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>144.1484017106766</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.088916456055614</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>29.89407122271324</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>29.89407122271322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>44.93311153869614</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583908</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
@@ -26340,19 +26340,19 @@
         <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459069</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230226</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293114.5399413888</v>
+        <v>-293114.539941389</v>
       </c>
       <c r="C6" t="n">
-        <v>296853.3392731552</v>
+        <v>296853.3392731557</v>
       </c>
       <c r="D6" t="n">
-        <v>296853.3392731552</v>
+        <v>296853.3392731553</v>
       </c>
       <c r="E6" t="n">
-        <v>-119536.2685917299</v>
+        <v>-118659.1364579802</v>
       </c>
       <c r="F6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189156</v>
       </c>
       <c r="G6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.9000189157</v>
       </c>
       <c r="H6" t="n">
-        <v>405623.7678851666</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="I6" t="n">
-        <v>405623.7678851662</v>
+        <v>406500.9000189157</v>
       </c>
       <c r="J6" t="n">
-        <v>229200.5486925736</v>
+        <v>230077.6808263231</v>
       </c>
       <c r="K6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.9000189158</v>
       </c>
       <c r="L6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="M6" t="n">
-        <v>270822.7526513289</v>
+        <v>271699.8847850787</v>
       </c>
       <c r="N6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.9000189158</v>
       </c>
       <c r="O6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.900018916</v>
       </c>
       <c r="P6" t="n">
-        <v>405623.7678851662</v>
+        <v>406500.9000189158</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26822,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>136.1053849558762</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>27.54424651049465</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>97.12753845258925</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.95678475475398</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>293.8805216434266</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.5017245654299</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167465</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>169.0745889828461</v>
       </c>
       <c r="U8" t="n">
-        <v>186.4548081583664</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.4387434050068</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.190252600806797e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.190252600806797e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.276877805608</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330527</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>437.8187244348071</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187912</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
